--- a/data/trans_dic/iP30A8_2023-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/iP30A8_2023-Habitat-trans_dic.xlsx
@@ -546,7 +546,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>Menos de 2</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -556,17 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>50,46%</t>
+          <t>15,19%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>46,68%</t>
+          <t>20,28%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>48,81%</t>
+          <t>18,17%</t>
         </is>
       </c>
     </row>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>43,99; 56,39</t>
+          <t>4,15; 38,99</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>40,28; 53,06</t>
+          <t>8,03; 38,18</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>44,78; 52,97</t>
+          <t>9,05; 31,59</t>
         </is>
       </c>
     </row>
@@ -646,7 +646,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>10/50</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -656,17 +656,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>54,94%</t>
+          <t>50,46%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>56,39%</t>
+          <t>46,68%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>55,66%</t>
+          <t>48,81%</t>
         </is>
       </c>
     </row>
@@ -679,24 +679,24 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>48,62; 62,02</t>
+          <t>43,99; 56,39</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>49,78; 62,66</t>
+          <t>40,28; 53,06</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>50,79; 60,48</t>
+          <t>44,78; 52,97</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>mas de 50</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -706,17 +706,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>15,19%</t>
+          <t>39,89%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>20,28%</t>
+          <t>34,26%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>18,17%</t>
+          <t>37,11%</t>
         </is>
       </c>
     </row>
@@ -729,24 +729,24 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>4,15; 38,99</t>
+          <t>32,62; 47,1</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>8,03; 38,18</t>
+          <t>26,72; 41,41</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>9,05; 31,59</t>
+          <t>31,84; 41,92</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -756,17 +756,17 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>39,89%</t>
+          <t>54,94%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>34,26%</t>
+          <t>56,39%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>37,11%</t>
+          <t>55,66%</t>
         </is>
       </c>
     </row>
@@ -779,17 +779,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>32,62; 47,1</t>
+          <t>48,62; 62,02</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>26,72; 41,41</t>
+          <t>49,78; 62,66</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>31,84; 41,92</t>
+          <t>50,79; 60,48</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/iP30A8_2023-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/iP30A8_2023-Habitat-trans_dic.xlsx
@@ -476,7 +476,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>27,21; 45,06</t>
+          <t>26,82; 45,05</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>42,68; 59,43</t>
+          <t>42,9; 59,87</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>36,64; 49,74</t>
+          <t>36,84; 49,76</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>43,99; 56,39</t>
+          <t>44,25; 56,02</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>40,28; 53,06</t>
+          <t>39,72; 52,57</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>44,78; 52,97</t>
+          <t>43,95; 52,69</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>32,62; 47,1</t>
+          <t>32,39; 47,17</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>26,72; 41,41</t>
+          <t>27,1; 41,33</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>31,84; 41,92</t>
+          <t>31,83; 42,15</t>
         </is>
       </c>
     </row>
@@ -779,17 +779,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>48,62; 62,02</t>
+          <t>48,48; 61,86</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>49,78; 62,66</t>
+          <t>49,86; 62,47</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>50,79; 60,48</t>
+          <t>51,5; 60,52</t>
         </is>
       </c>
     </row>
@@ -829,17 +829,24 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>42,53; 49,38</t>
+          <t>42,48; 49,38</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>42,48; 49,56</t>
+          <t>42,44; 49,58</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>43,38; 48,53</t>
+          <t>43,47; 48,58</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
